--- a/3.xlsx
+++ b/3.xlsx
@@ -557,184 +557,184 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>103210.7026</v>
+        <v>74892.46286</v>
       </c>
       <c r="C2" t="n">
-        <v>60244.82914</v>
+        <v>18424.6706</v>
       </c>
       <c r="D2" t="n">
-        <v>2091.97652</v>
+        <v>2104.69667</v>
       </c>
       <c r="E2" t="n">
-        <v>103552.80256</v>
+        <v>74979.84365</v>
       </c>
       <c r="F2" t="n">
-        <v>60313.32053</v>
+        <v>18745.68903</v>
       </c>
       <c r="G2" t="n">
-        <v>2091.97652</v>
+        <v>2104.69667</v>
       </c>
       <c r="H2" t="n">
-        <v>103894.90253</v>
+        <v>75067.22444000001</v>
       </c>
       <c r="I2" t="n">
-        <v>60381.81192</v>
+        <v>19066.70746</v>
       </c>
       <c r="J2" t="n">
-        <v>2091.97652</v>
+        <v>2104.69667</v>
       </c>
       <c r="K2" t="n">
-        <v>104237.00249</v>
+        <v>75154.60523</v>
       </c>
       <c r="L2" t="n">
-        <v>60450.30331</v>
+        <v>19387.72588</v>
       </c>
       <c r="M2" t="n">
-        <v>2091.97652</v>
+        <v>2104.69667</v>
       </c>
       <c r="N2" t="n">
-        <v>104579.10246</v>
+        <v>75241.98602</v>
       </c>
       <c r="O2" t="n">
-        <v>60518.79471</v>
+        <v>19708.74431</v>
       </c>
       <c r="P2" t="n">
-        <v>2091.97652</v>
+        <v>2104.69667</v>
       </c>
       <c r="Q2" t="n">
-        <v>104921.20242</v>
+        <v>75329.36681000001</v>
       </c>
       <c r="R2" t="n">
-        <v>60587.2861</v>
+        <v>20029.76274</v>
       </c>
       <c r="S2" t="n">
-        <v>2091.97652</v>
+        <v>2104.69667</v>
       </c>
       <c r="T2" t="n">
-        <v>105263.30239</v>
+        <v>75416.7476</v>
       </c>
       <c r="U2" t="n">
-        <v>60655.77749</v>
+        <v>20350.78117</v>
       </c>
       <c r="V2" t="n">
-        <v>2091.97652</v>
+        <v>2104.69667</v>
       </c>
       <c r="W2" t="n">
-        <v>105605.40235</v>
+        <v>75504.12839</v>
       </c>
       <c r="X2" t="n">
-        <v>60724.26888</v>
+        <v>20671.7996</v>
       </c>
       <c r="Y2" t="n">
-        <v>2091.97652</v>
+        <v>2104.69667</v>
       </c>
       <c r="Z2" t="n">
-        <v>105947.50232</v>
+        <v>75591.50917999999</v>
       </c>
       <c r="AA2" t="n">
-        <v>60792.76027</v>
+        <v>20992.81803</v>
       </c>
       <c r="AB2" t="n">
-        <v>2091.97652</v>
+        <v>2104.69667</v>
       </c>
       <c r="AC2" t="n">
-        <v>106289.60228</v>
+        <v>75678.88997</v>
       </c>
       <c r="AD2" t="n">
-        <v>60861.25167</v>
+        <v>21313.83645</v>
       </c>
       <c r="AE2" t="n">
-        <v>2091.97652</v>
+        <v>2104.69667</v>
       </c>
       <c r="AF2" t="n">
-        <v>106631.70225</v>
+        <v>75766.27076</v>
       </c>
       <c r="AG2" t="n">
-        <v>60929.74306</v>
+        <v>21634.85488</v>
       </c>
       <c r="AH2" t="n">
-        <v>2091.97652</v>
+        <v>2104.69667</v>
       </c>
       <c r="AI2" t="n">
-        <v>106973.80221</v>
+        <v>75853.65155</v>
       </c>
       <c r="AJ2" t="n">
-        <v>60998.23445</v>
+        <v>21955.87331</v>
       </c>
       <c r="AK2" t="n">
-        <v>2091.97652</v>
+        <v>2104.69667</v>
       </c>
       <c r="AL2" t="n">
-        <v>107315.90218</v>
+        <v>75941.03234000001</v>
       </c>
       <c r="AM2" t="n">
-        <v>61066.72584</v>
+        <v>22276.89174</v>
       </c>
       <c r="AN2" t="n">
-        <v>2091.97652</v>
+        <v>2104.69667</v>
       </c>
       <c r="AO2" t="n">
-        <v>107658.00214</v>
+        <v>76028.41313</v>
       </c>
       <c r="AP2" t="n">
-        <v>61135.21723</v>
+        <v>22597.91017</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2091.97652</v>
+        <v>2104.69667</v>
       </c>
       <c r="AR2" t="n">
-        <v>108000.10211</v>
+        <v>76115.79392</v>
       </c>
       <c r="AS2" t="n">
-        <v>61203.70863</v>
+        <v>22918.9286</v>
       </c>
       <c r="AT2" t="n">
-        <v>2091.97652</v>
+        <v>2104.69667</v>
       </c>
       <c r="AU2" t="n">
-        <v>108342.20207</v>
+        <v>76203.17471000001</v>
       </c>
       <c r="AV2" t="n">
-        <v>61272.20002</v>
+        <v>23239.94703</v>
       </c>
       <c r="AW2" t="n">
-        <v>2091.97652</v>
+        <v>2104.69667</v>
       </c>
       <c r="AX2" t="n">
-        <v>108684.30204</v>
+        <v>76290.5555</v>
       </c>
       <c r="AY2" t="n">
-        <v>61340.69141</v>
+        <v>23560.96545</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2091.97652</v>
+        <v>2104.69667</v>
       </c>
       <c r="BA2" t="n">
-        <v>109026.402</v>
+        <v>76377.93629</v>
       </c>
       <c r="BB2" t="n">
-        <v>61409.1828</v>
+        <v>23881.98388</v>
       </c>
       <c r="BC2" t="n">
-        <v>2091.97652</v>
+        <v>2104.69667</v>
       </c>
       <c r="BD2" t="n">
-        <v>109368.50197</v>
+        <v>76465.31707999999</v>
       </c>
       <c r="BE2" t="n">
-        <v>61477.67419</v>
+        <v>24203.00231</v>
       </c>
       <c r="BF2" t="n">
-        <v>2091.97652</v>
+        <v>2104.69667</v>
       </c>
       <c r="BG2" t="n">
-        <v>109710.60193</v>
+        <v>76552.69786</v>
       </c>
       <c r="BH2" t="n">
-        <v>61546.16559</v>
+        <v>24524.02074</v>
       </c>
       <c r="BI2" t="n">
-        <v>2091.97652</v>
+        <v>2104.69667</v>
       </c>
     </row>
     <row r="3" spans="1:61">
@@ -742,184 +742,184 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>58216.00507</v>
+        <v>56547.44375</v>
       </c>
       <c r="C3" t="n">
-        <v>82466.2206</v>
+        <v>98944.69409999999</v>
       </c>
       <c r="D3" t="n">
-        <v>2498.04305</v>
+        <v>2208.41487</v>
       </c>
       <c r="E3" t="n">
-        <v>58390.74485</v>
+        <v>56669.67423</v>
       </c>
       <c r="F3" t="n">
-        <v>82841.15124000001</v>
+        <v>99294.42588</v>
       </c>
       <c r="G3" t="n">
-        <v>2498.04305</v>
+        <v>2208.41487</v>
       </c>
       <c r="H3" t="n">
-        <v>58565.48463</v>
+        <v>56791.90471</v>
       </c>
       <c r="I3" t="n">
-        <v>83216.08189</v>
+        <v>99644.15766</v>
       </c>
       <c r="J3" t="n">
-        <v>2498.04305</v>
+        <v>2208.41487</v>
       </c>
       <c r="K3" t="n">
-        <v>58740.22441</v>
+        <v>56914.13519</v>
       </c>
       <c r="L3" t="n">
-        <v>83591.01253000001</v>
+        <v>99993.88943</v>
       </c>
       <c r="M3" t="n">
-        <v>2498.04305</v>
+        <v>2208.41487</v>
       </c>
       <c r="N3" t="n">
-        <v>58914.96419</v>
+        <v>57036.36567</v>
       </c>
       <c r="O3" t="n">
-        <v>83965.94317</v>
+        <v>100343.62121</v>
       </c>
       <c r="P3" t="n">
-        <v>2498.04305</v>
+        <v>2208.41487</v>
       </c>
       <c r="Q3" t="n">
-        <v>59089.70397</v>
+        <v>57158.59615</v>
       </c>
       <c r="R3" t="n">
-        <v>84340.87381999999</v>
+        <v>100693.35299</v>
       </c>
       <c r="S3" t="n">
-        <v>2498.04305</v>
+        <v>2208.41487</v>
       </c>
       <c r="T3" t="n">
-        <v>59264.44376</v>
+        <v>57280.82664</v>
       </c>
       <c r="U3" t="n">
-        <v>84715.80446</v>
+        <v>101043.08477</v>
       </c>
       <c r="V3" t="n">
-        <v>2498.04305</v>
+        <v>2208.41487</v>
       </c>
       <c r="W3" t="n">
-        <v>59439.18354</v>
+        <v>57403.05712</v>
       </c>
       <c r="X3" t="n">
-        <v>85090.73510999999</v>
+        <v>101392.81655</v>
       </c>
       <c r="Y3" t="n">
-        <v>2498.04305</v>
+        <v>2208.41487</v>
       </c>
       <c r="Z3" t="n">
-        <v>59613.92332</v>
+        <v>57525.2876</v>
       </c>
       <c r="AA3" t="n">
-        <v>85465.66575</v>
+        <v>101742.54833</v>
       </c>
       <c r="AB3" t="n">
-        <v>2498.04305</v>
+        <v>2208.41487</v>
       </c>
       <c r="AC3" t="n">
-        <v>59788.6631</v>
+        <v>57647.51808</v>
       </c>
       <c r="AD3" t="n">
-        <v>85840.59639000001</v>
+        <v>102092.28011</v>
       </c>
       <c r="AE3" t="n">
-        <v>2498.04305</v>
+        <v>2208.41487</v>
       </c>
       <c r="AF3" t="n">
-        <v>59963.40288</v>
+        <v>57769.74856</v>
       </c>
       <c r="AG3" t="n">
-        <v>86215.52704</v>
+        <v>102442.01189</v>
       </c>
       <c r="AH3" t="n">
-        <v>2498.04305</v>
+        <v>2208.41487</v>
       </c>
       <c r="AI3" t="n">
-        <v>60138.14266</v>
+        <v>57891.97904</v>
       </c>
       <c r="AJ3" t="n">
-        <v>86590.45768000001</v>
+        <v>102791.74367</v>
       </c>
       <c r="AK3" t="n">
-        <v>2498.04305</v>
+        <v>2208.41487</v>
       </c>
       <c r="AL3" t="n">
-        <v>60312.88244</v>
+        <v>58014.20952</v>
       </c>
       <c r="AM3" t="n">
-        <v>86965.38833</v>
+        <v>103141.47545</v>
       </c>
       <c r="AN3" t="n">
-        <v>2498.04305</v>
+        <v>2208.41487</v>
       </c>
       <c r="AO3" t="n">
-        <v>60487.62223</v>
+        <v>58136.44</v>
       </c>
       <c r="AP3" t="n">
-        <v>87340.31896999999</v>
+        <v>103491.20723</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2498.04305</v>
+        <v>2208.41487</v>
       </c>
       <c r="AR3" t="n">
-        <v>60662.36201</v>
+        <v>58258.67048</v>
       </c>
       <c r="AS3" t="n">
-        <v>87715.24961</v>
+        <v>103840.939</v>
       </c>
       <c r="AT3" t="n">
-        <v>2498.04305</v>
+        <v>2208.41487</v>
       </c>
       <c r="AU3" t="n">
-        <v>60837.10179</v>
+        <v>58380.90096</v>
       </c>
       <c r="AV3" t="n">
-        <v>88090.18025999999</v>
+        <v>104190.67078</v>
       </c>
       <c r="AW3" t="n">
-        <v>2498.04305</v>
+        <v>2208.41487</v>
       </c>
       <c r="AX3" t="n">
-        <v>61011.84157</v>
+        <v>58503.13144</v>
       </c>
       <c r="AY3" t="n">
-        <v>88465.1109</v>
+        <v>104540.40256</v>
       </c>
       <c r="AZ3" t="n">
-        <v>2498.04305</v>
+        <v>2208.41487</v>
       </c>
       <c r="BA3" t="n">
-        <v>61186.58135</v>
+        <v>58625.36192</v>
       </c>
       <c r="BB3" t="n">
-        <v>88840.04154999999</v>
+        <v>104890.13434</v>
       </c>
       <c r="BC3" t="n">
-        <v>2498.04305</v>
+        <v>2208.41487</v>
       </c>
       <c r="BD3" t="n">
-        <v>61361.32113</v>
+        <v>58747.5924</v>
       </c>
       <c r="BE3" t="n">
-        <v>89214.97219</v>
+        <v>105239.86612</v>
       </c>
       <c r="BF3" t="n">
-        <v>2498.04305</v>
+        <v>2208.41487</v>
       </c>
       <c r="BG3" t="n">
-        <v>61536.06091</v>
+        <v>58869.82288</v>
       </c>
       <c r="BH3" t="n">
-        <v>89589.90283000001</v>
+        <v>105589.5979</v>
       </c>
       <c r="BI3" t="n">
-        <v>2498.04305</v>
+        <v>2208.41487</v>
       </c>
     </row>
     <row r="4" spans="1:61">
@@ -927,184 +927,184 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>48996.57438</v>
+        <v>92878.8977</v>
       </c>
       <c r="C4" t="n">
-        <v>67812.25443</v>
+        <v>99074.77627</v>
       </c>
       <c r="D4" t="n">
-        <v>2499.02153</v>
+        <v>2182.97456</v>
       </c>
       <c r="E4" t="n">
-        <v>48843.62466</v>
+        <v>92773.66069</v>
       </c>
       <c r="F4" t="n">
-        <v>67480.75883000001</v>
+        <v>98759.16035000001</v>
       </c>
       <c r="G4" t="n">
-        <v>2499.02153</v>
+        <v>2182.97456</v>
       </c>
       <c r="H4" t="n">
-        <v>48690.67495</v>
+        <v>92668.42368000001</v>
       </c>
       <c r="I4" t="n">
-        <v>67149.26324</v>
+        <v>98443.54444</v>
       </c>
       <c r="J4" t="n">
-        <v>2499.02153</v>
+        <v>2182.97456</v>
       </c>
       <c r="K4" t="n">
-        <v>48537.72524</v>
+        <v>92563.18667</v>
       </c>
       <c r="L4" t="n">
-        <v>66817.76764999999</v>
+        <v>98127.92852</v>
       </c>
       <c r="M4" t="n">
-        <v>2499.02153</v>
+        <v>2182.97456</v>
       </c>
       <c r="N4" t="n">
-        <v>48384.77553</v>
+        <v>92457.94966</v>
       </c>
       <c r="O4" t="n">
-        <v>66486.27205</v>
+        <v>97812.31260999999</v>
       </c>
       <c r="P4" t="n">
-        <v>2499.02153</v>
+        <v>2182.97456</v>
       </c>
       <c r="Q4" t="n">
-        <v>48231.82582</v>
+        <v>92352.71265</v>
       </c>
       <c r="R4" t="n">
-        <v>66154.77645999999</v>
+        <v>97496.69669</v>
       </c>
       <c r="S4" t="n">
-        <v>2499.02153</v>
+        <v>2182.97456</v>
       </c>
       <c r="T4" t="n">
-        <v>48078.87611</v>
+        <v>92247.47564</v>
       </c>
       <c r="U4" t="n">
-        <v>65823.28086</v>
+        <v>97181.08078</v>
       </c>
       <c r="V4" t="n">
-        <v>2499.02153</v>
+        <v>2182.97456</v>
       </c>
       <c r="W4" t="n">
-        <v>47925.9264</v>
+        <v>92142.23863000001</v>
       </c>
       <c r="X4" t="n">
-        <v>65491.78527</v>
+        <v>96865.46485999999</v>
       </c>
       <c r="Y4" t="n">
-        <v>2499.02153</v>
+        <v>2182.97456</v>
       </c>
       <c r="Z4" t="n">
-        <v>47772.97669</v>
+        <v>92037.00162</v>
       </c>
       <c r="AA4" t="n">
-        <v>65160.28968</v>
+        <v>96549.84895</v>
       </c>
       <c r="AB4" t="n">
-        <v>2499.02153</v>
+        <v>2182.97456</v>
       </c>
       <c r="AC4" t="n">
-        <v>47620.02698</v>
+        <v>91931.76461</v>
       </c>
       <c r="AD4" t="n">
-        <v>64828.79408</v>
+        <v>96234.23303</v>
       </c>
       <c r="AE4" t="n">
-        <v>2499.02153</v>
+        <v>2182.97456</v>
       </c>
       <c r="AF4" t="n">
-        <v>47467.07727</v>
+        <v>91826.5276</v>
       </c>
       <c r="AG4" t="n">
-        <v>64497.29849</v>
+        <v>95918.61712</v>
       </c>
       <c r="AH4" t="n">
-        <v>2499.02153</v>
+        <v>2182.97456</v>
       </c>
       <c r="AI4" t="n">
-        <v>47314.12756</v>
+        <v>91721.29059</v>
       </c>
       <c r="AJ4" t="n">
-        <v>64165.80289</v>
+        <v>95603.0012</v>
       </c>
       <c r="AK4" t="n">
-        <v>2499.02153</v>
+        <v>2182.97456</v>
       </c>
       <c r="AL4" t="n">
-        <v>47161.17785</v>
+        <v>91616.05358000001</v>
       </c>
       <c r="AM4" t="n">
-        <v>63834.3073</v>
+        <v>95287.38529000001</v>
       </c>
       <c r="AN4" t="n">
-        <v>2499.02153</v>
+        <v>2182.97456</v>
       </c>
       <c r="AO4" t="n">
-        <v>47008.22814</v>
+        <v>91510.81657</v>
       </c>
       <c r="AP4" t="n">
-        <v>63502.81171</v>
+        <v>94971.76938</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2499.02153</v>
+        <v>2182.97456</v>
       </c>
       <c r="AR4" t="n">
-        <v>46855.27843</v>
+        <v>91405.57956</v>
       </c>
       <c r="AS4" t="n">
-        <v>63171.31611</v>
+        <v>94656.15346</v>
       </c>
       <c r="AT4" t="n">
-        <v>2499.02153</v>
+        <v>2182.97456</v>
       </c>
       <c r="AU4" t="n">
-        <v>46702.32871</v>
+        <v>91300.34255</v>
       </c>
       <c r="AV4" t="n">
-        <v>62839.82052</v>
+        <v>94340.53754999999</v>
       </c>
       <c r="AW4" t="n">
-        <v>2499.02153</v>
+        <v>2182.97456</v>
       </c>
       <c r="AX4" t="n">
-        <v>46549.379</v>
+        <v>91195.10554</v>
       </c>
       <c r="AY4" t="n">
-        <v>62508.32492</v>
+        <v>94024.92163</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2499.02153</v>
+        <v>2182.97456</v>
       </c>
       <c r="BA4" t="n">
-        <v>46396.42929</v>
+        <v>91089.86853000001</v>
       </c>
       <c r="BB4" t="n">
-        <v>62176.82933</v>
+        <v>93709.30572</v>
       </c>
       <c r="BC4" t="n">
-        <v>2499.02153</v>
+        <v>2182.97456</v>
       </c>
       <c r="BD4" t="n">
-        <v>46243.47958</v>
+        <v>90984.63152</v>
       </c>
       <c r="BE4" t="n">
-        <v>61845.33374</v>
+        <v>93393.68979999999</v>
       </c>
       <c r="BF4" t="n">
-        <v>2499.02153</v>
+        <v>2182.97456</v>
       </c>
       <c r="BG4" t="n">
-        <v>46090.52987</v>
+        <v>90879.39451</v>
       </c>
       <c r="BH4" t="n">
-        <v>61513.83814</v>
+        <v>93078.07389</v>
       </c>
       <c r="BI4" t="n">
-        <v>2499.02153</v>
+        <v>2182.97456</v>
       </c>
     </row>
   </sheetData>
